--- a/Daily Scrum 3oSprint.xlsx
+++ b/Daily Scrum 3oSprint.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Ambiente de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D1D3BD-2EDF-4C01-AEE5-D5C4F9376FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>1- Whats
  been done</t>
@@ -71,12 +72,35 @@
   <si>
     <t>atualizacao da documentacao de analise do uc9
 implementacao das classes de dominio</t>
+  </si>
+  <si>
+    <t>UC2 - PLSQL</t>
+  </si>
+  <si>
+    <t>UC4, UC6 - PLSQL</t>
+  </si>
+  <si>
+    <t>UC1, UC3 - PLSQL
+UC1 - Ligação Modelo com base de dados</t>
+  </si>
+  <si>
+    <t>UC5 - PLSQL
+Inserts Gerais</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implementação Novas Classes TDD</t>
+  </si>
+  <si>
+    <t>Implementação Novas Classes TDD</t>
+  </si>
+  <si>
+    <t>Finalização PLSQL + ligação modelo com base de dados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -474,11 +498,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,6 +580,76 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44244</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily Scrum 3oSprint.xlsx
+++ b/Daily Scrum 3oSprint.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Ambiente de Trabalho\UpSkill\GitHub\upskill_java1_labprg_grupo3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D1D3BD-2EDF-4C01-AEE5-D5C4F9376FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>1- Whats
  been done</t>
@@ -95,12 +94,30 @@
   </si>
   <si>
     <t>Finalização PLSQL + ligação modelo com base de dados</t>
+  </si>
+  <si>
+    <t>nenhuma</t>
+  </si>
+  <si>
+    <t>nada a realcar</t>
+  </si>
+  <si>
+    <t>Finalização PLSQL + ligação modelo com base de dados UC1/2/3</t>
+  </si>
+  <si>
+    <t>Finalização PLSQL + ligação modelo com base de dados UC4/5</t>
+  </si>
+  <si>
+    <t>Finalização PLSQL + ligação modelo com base de dados UC4/5/6</t>
+  </si>
+  <si>
+    <t>Finalização PLSQL + ligação modelo com base de dados UC1/2/3/6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,11 +515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +527,7 @@
     <col min="1" max="4" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>44239</v>
       </c>
@@ -524,7 +541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -538,7 +555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -552,7 +569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -566,7 +583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -580,7 +597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44244</v>
       </c>
@@ -594,7 +611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -608,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -622,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -636,7 +653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -648,6 +665,79 @@
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44244</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Daily Scrum 3oSprint.xlsx
+++ b/Daily Scrum 3oSprint.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Ambiente de Trabalho\UpSkill\GitHub\upskill_java1_labprg_grupo3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0F2B7B-CE72-4DEF-B832-457D20F2D636}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="9870"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="32">
   <si>
     <t>1- Whats
  been done</t>
@@ -112,12 +113,30 @@
   </si>
   <si>
     <t>Finalização PLSQL + ligação modelo com base de dados UC1/2/3/6</t>
+  </si>
+  <si>
+    <t>UC8</t>
+  </si>
+  <si>
+    <t>UC7</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalizar UC7/UC8, análise/documentação</t>
+  </si>
+  <si>
+    <t>finalizar UC7/UC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalizar UC7/UC8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,11 +534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +546,7 @@
     <col min="1" max="4" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>44239</v>
       </c>
@@ -541,7 +560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -555,7 +574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -569,7 +588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -583,7 +602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -597,7 +616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44244</v>
       </c>
@@ -611,7 +630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -625,7 +644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -639,7 +658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -653,7 +672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -667,9 +686,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -680,11 +699,8 @@
       <c r="D13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -698,7 +714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -712,7 +728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
@@ -738,6 +754,146 @@
       </c>
       <c r="D17" s="4" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Daily Scrum 3oSprint.xlsx
+++ b/Daily Scrum 3oSprint.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0F2B7B-CE72-4DEF-B832-457D20F2D636}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B75A5E-510A-46ED-8F1A-88BDC35C7C87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
   <si>
     <t>1- Whats
  been done</t>
@@ -131,6 +140,27 @@
   </si>
   <si>
     <t xml:space="preserve"> finalizar UC7/UC8</t>
+  </si>
+  <si>
+    <t>Correção de Testes, Documentação, Análise</t>
+  </si>
+  <si>
+    <t>Javadocs, Análise UC8</t>
+  </si>
+  <si>
+    <t>Finalizar UC9 + Ligações e Correções BD</t>
+  </si>
+  <si>
+    <t>Terminar Análise UC8 + Javadocs</t>
+  </si>
+  <si>
+    <t>Ajudar Análise UC8, Terminar Análise UC7, UC9</t>
+  </si>
+  <si>
+    <t>Finalizar UC10 + Ligações e Correções BD</t>
+  </si>
+  <si>
+    <t>Testes à aplicação e revisão de conteúdo</t>
   </si>
 </sst>
 </file>
@@ -535,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,6 +926,192 @@
         <v>8</v>
       </c>
     </row>
+    <row r="33" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="39" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="45" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
